--- a/X-C 2.0.xlsx
+++ b/X-C 2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314EE2C4-2E70-421C-9300-D09D0BFC14E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E7050B-2AB5-4A55-A0DC-A1E91FEE8898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="132" windowWidth="16164" windowHeight="12360" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="拼邮" sheetId="4" r:id="rId1"/>
@@ -46,6 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>milly:</t>
@@ -55,6 +56,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="141">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -642,6 +644,18 @@
   </si>
   <si>
     <t>浙江省杭州市余杭区临平街道月荷路28号莱茵知己4-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ 631525164384</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ 631516585991</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ 631504998235</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -649,11 +663,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +724,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -716,6 +732,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -760,23 +777,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,8 +813,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1122,7 +1130,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
       <top style="thick">
         <color theme="0" tint="-0.24994659260841701"/>
       </top>
@@ -1130,7 +1140,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thick">
@@ -1156,7 +1199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1340,6 +1383,63 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1367,16 +1467,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1415,46 +1521,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1601,7 +1683,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0.00_ "/>
+      <numFmt numFmtId="179" formatCode="0.00_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1950,10 +2032,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF89E5C-CCB9-476F-8234-E85E0F0C37F3}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1963,19 +2045,20 @@
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="66.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66"/>
+      <c r="C1" s="85"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1997,33 +2080,34 @@
       <c r="J1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>6.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
@@ -2044,22 +2128,23 @@
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="69" t="s">
+      <c r="J4" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="15"/>
-      <c r="M4" s="67" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="67">
+      <c r="O4" s="86">
         <v>19810952575</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="P4" s="80" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2080,14 +2165,15 @@
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="18"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="73"/>
       <c r="L5" s="18"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="62"/>
-    </row>
-    <row r="6" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="18"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="81"/>
+    </row>
+    <row r="6" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
@@ -2108,20 +2194,21 @@
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="11"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="73"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="8">
         <v>16622811762</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="P6" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
@@ -2142,20 +2229,21 @@
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="73"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="18"/>
+      <c r="N7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>18190799737</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="P7" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
@@ -2176,20 +2264,21 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="11"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="73"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="11"/>
+      <c r="N8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="8">
+      <c r="O8" s="8">
         <v>17375729345</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="P8" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
@@ -2210,27 +2299,29 @@
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="73"/>
       <c r="L9" s="18"/>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="18"/>
+      <c r="N9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>18008097133</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="P9" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>6.2</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="O10" s="31"/>
-    </row>
-    <row r="11" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="89"/>
+      <c r="K10" s="73"/>
+      <c r="P10" s="31"/>
+    </row>
+    <row r="11" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
@@ -2249,20 +2340,21 @@
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="11"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="73"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="11"/>
+      <c r="N11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <v>18933367700</v>
       </c>
-      <c r="O11" s="30" t="s">
+      <c r="P11" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>37</v>
       </c>
@@ -2283,20 +2375,21 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="18"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="73"/>
       <c r="L12" s="18"/>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="18"/>
+      <c r="N12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>18851302126</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="P12" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>6.4</v>
       </c>
@@ -2320,20 +2413,21 @@
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="11"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="34" t="s">
+      <c r="M13" s="11"/>
+      <c r="N13" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="8">
+      <c r="O13" s="8">
         <v>15801717613</v>
       </c>
-      <c r="O13" s="35" t="s">
+      <c r="P13" s="35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>74</v>
       </c>
@@ -2354,20 +2448,21 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="10"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="74"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="10"/>
+      <c r="N14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>18058943618</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="P14" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D15" s="36">
         <f>SUM(D4:D14)</f>
         <v>10</v>
@@ -2385,9 +2480,10 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
-      <c r="M15" s="38"/>
-    </row>
-    <row r="17" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="36"/>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="17" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
         <v>127</v>
       </c>
@@ -2405,37 +2501,30 @@
         <v>82</v>
       </c>
       <c r="G17" s="41">
-        <f>G15-L15</f>
+        <f>G15-M15</f>
         <v>1616</v>
       </c>
-      <c r="M17" s="42" t="s">
+      <c r="N17" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="N17" s="41">
-        <f>G17-D17-K15-L15</f>
+      <c r="O17" s="41">
+        <f>G17-D17-L15-M15</f>
         <v>416</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="41"/>
-    </row>
-    <row r="19" spans="1:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>6.3</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="77" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -2455,26 +2544,29 @@
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="72" t="s">
+      <c r="J21" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="K21" s="15"/>
+      <c r="K21" s="93">
+        <v>380730990330</v>
+      </c>
       <c r="L21" s="15"/>
-      <c r="M21" s="63" t="s">
+      <c r="M21" s="15"/>
+      <c r="N21" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="N21" s="63">
+      <c r="O21" s="82">
         <v>13655843077</v>
       </c>
-      <c r="O21" s="61" t="s">
+      <c r="P21" s="80" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>6.4</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="78" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="17" t="s">
@@ -2494,19 +2586,20 @@
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="18"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="94"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="62"/>
-    </row>
-    <row r="23" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="18"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="81"/>
+    </row>
+    <row r="23" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="52" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>6.4</v>
       </c>
@@ -2533,24 +2626,25 @@
       <c r="J24" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="11"/>
+      <c r="K24" s="57"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="11"/>
+      <c r="N24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N24" s="8">
+      <c r="O24" s="8">
         <v>18610048277</v>
       </c>
-      <c r="O24" s="30" t="s">
+      <c r="P24" s="30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="52" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <v>6.4</v>
       </c>
@@ -2578,19 +2672,20 @@
       <c r="J26" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="K26" s="10"/>
+      <c r="K26" s="58"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="27" t="s">
+      <c r="M26" s="10"/>
+      <c r="N26" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="27">
+      <c r="O26" s="27">
         <v>15801717613</v>
       </c>
-      <c r="O26" s="28" t="s">
+      <c r="P26" s="28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="52" t="s">
         <v>97</v>
       </c>
@@ -2598,7 +2693,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>6.6</v>
       </c>
@@ -2624,19 +2719,20 @@
       <c r="J28" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="K28" s="10"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="10"/>
+      <c r="N28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N28" s="5">
+      <c r="O28" s="5">
         <v>18222242851</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="P28" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D29" s="36">
         <f>SUM(D21:D28)</f>
         <v>7</v>
@@ -2654,9 +2750,10 @@
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
-      <c r="M29" s="38"/>
-    </row>
-    <row r="31" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M29" s="36"/>
+      <c r="N29" s="38"/>
+    </row>
+    <row r="31" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="59" t="s">
         <v>128</v>
       </c>
@@ -2674,28 +2771,28 @@
         <v>82</v>
       </c>
       <c r="G31" s="41">
-        <f>G29-L29</f>
+        <f>G29-M29</f>
         <v>2259</v>
       </c>
-      <c r="M31" s="42" t="s">
+      <c r="N31" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="N31" s="41">
-        <f>G31-D31-K29-L29</f>
+      <c r="O31" s="41">
+        <f>G31-D31-L29-M29</f>
         <v>283.19000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="52" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>6.6</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="79" t="s">
         <v>92</v>
       </c>
       <c r="C35" s="8">
@@ -2718,32 +2815,35 @@
       <c r="J35" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K35" s="11"/>
+      <c r="K35" s="75" t="s">
+        <v>138</v>
+      </c>
       <c r="L35" s="11"/>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="11"/>
+      <c r="N35" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="N35" s="8">
+      <c r="O35" s="8">
         <v>18940928096</v>
       </c>
-      <c r="O35" s="30" t="s">
+      <c r="P35" s="30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="8.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="74" t="s">
+    <row r="36" spans="1:16" ht="8.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="95" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="75"/>
-    </row>
-    <row r="39" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="78" t="s">
+    <row r="38" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="96"/>
+    </row>
+    <row r="39" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="76" t="s">
         <v>100</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -2758,29 +2858,32 @@
       <c r="F39" s="7">
         <v>269</v>
       </c>
-      <c r="G39" s="80">
+      <c r="G39" s="101">
         <v>2386</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="72" t="s">
+      <c r="J39" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="K39" s="11"/>
+      <c r="K39" s="93">
+        <v>402275955642</v>
+      </c>
       <c r="L39" s="11"/>
-      <c r="M39" s="76" t="s">
+      <c r="M39" s="11"/>
+      <c r="N39" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="N39" s="76">
+      <c r="O39" s="97">
         <v>16601778412</v>
       </c>
-      <c r="O39" s="76" t="s">
+      <c r="P39" s="97" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="79"/>
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="100"/>
+      <c r="B40" s="76" t="s">
         <v>101</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -2795,19 +2898,20 @@
       <c r="F40" s="4">
         <v>279</v>
       </c>
-      <c r="G40" s="81"/>
+      <c r="G40" s="102"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="10"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="107"/>
       <c r="L40" s="10"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-    </row>
-    <row r="41" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="79"/>
-      <c r="B41" s="6" t="s">
+      <c r="M40" s="10"/>
+      <c r="N40" s="98"/>
+      <c r="O40" s="98"/>
+      <c r="P40" s="98"/>
+    </row>
+    <row r="41" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="100"/>
+      <c r="B41" s="76" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -2820,19 +2924,20 @@
       <c r="F41" s="7">
         <v>379</v>
       </c>
-      <c r="G41" s="81"/>
+      <c r="G41" s="102"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="11"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="107"/>
       <c r="L41" s="11"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
-    </row>
-    <row r="42" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="79"/>
-      <c r="B42" s="3" t="s">
+      <c r="M41" s="11"/>
+      <c r="N41" s="98"/>
+      <c r="O41" s="98"/>
+      <c r="P41" s="98"/>
+    </row>
+    <row r="42" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="100"/>
+      <c r="B42" s="76" t="s">
         <v>103</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2847,21 +2952,22 @@
       <c r="F42" s="4">
         <v>279</v>
       </c>
-      <c r="G42" s="81"/>
+      <c r="G42" s="102"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="10"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="94"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-    </row>
-    <row r="43" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M42" s="10"/>
+      <c r="N42" s="98"/>
+      <c r="O42" s="98"/>
+      <c r="P42" s="98"/>
+    </row>
+    <row r="43" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="76" t="s">
         <v>107</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -2876,21 +2982,24 @@
       <c r="F43" s="7">
         <v>229</v>
       </c>
-      <c r="G43" s="81"/>
+      <c r="G43" s="102"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="11"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="75" t="s">
+        <v>139</v>
+      </c>
       <c r="L43" s="11"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-    </row>
-    <row r="44" spans="1:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="79" t="s">
+      <c r="M43" s="11"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="98"/>
+      <c r="P43" s="98"/>
+    </row>
+    <row r="44" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="77" t="s">
         <v>109</v>
       </c>
       <c r="C44" s="14" t="s">
@@ -2900,22 +3009,25 @@
         <v>1</v>
       </c>
       <c r="E44" s="20"/>
-      <c r="F44" s="83">
+      <c r="F44" s="104">
         <v>469</v>
       </c>
-      <c r="G44" s="81"/>
+      <c r="G44" s="102"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="15"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="108">
+        <v>97603403376</v>
+      </c>
       <c r="L44" s="15"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-    </row>
-    <row r="45" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="79"/>
-      <c r="B45" s="16" t="s">
+      <c r="M44" s="15"/>
+      <c r="N44" s="98"/>
+      <c r="O44" s="98"/>
+      <c r="P44" s="98"/>
+    </row>
+    <row r="45" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="100"/>
+      <c r="B45" s="78" t="s">
         <v>110</v>
       </c>
       <c r="C45" s="17" t="s">
@@ -2925,18 +3037,19 @@
         <v>1</v>
       </c>
       <c r="E45" s="21"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="81"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="102"/>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="18"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="109"/>
       <c r="L45" s="18"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-    </row>
-    <row r="46" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M45" s="18"/>
+      <c r="N45" s="98"/>
+      <c r="O45" s="98"/>
+      <c r="P45" s="98"/>
+    </row>
+    <row r="46" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="51" t="s">
         <v>111</v>
       </c>
@@ -2955,19 +3068,20 @@
       <c r="F46" s="7">
         <v>199</v>
       </c>
-      <c r="G46" s="81"/>
+      <c r="G46" s="102"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="K46" s="11"/>
+      <c r="K46" s="57"/>
       <c r="L46" s="11"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="77"/>
-    </row>
-    <row r="47" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M46" s="11"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="98"/>
+    </row>
+    <row r="47" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="51" t="s">
         <v>113</v>
       </c>
@@ -2986,29 +3100,30 @@
       <c r="F47" s="4">
         <v>286</v>
       </c>
-      <c r="G47" s="82"/>
+      <c r="G47" s="103"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="K47" s="10"/>
+      <c r="K47" s="58"/>
       <c r="L47" s="10"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
-      <c r="O47" s="77"/>
-    </row>
-    <row r="48" spans="1:15" ht="8.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M47" s="10"/>
+      <c r="N47" s="98"/>
+      <c r="O47" s="98"/>
+      <c r="P47" s="98"/>
+    </row>
+    <row r="48" spans="1:16" ht="8.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="52" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25">
         <v>6.7</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="79" t="s">
         <v>123</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -3032,19 +3147,22 @@
       <c r="J50" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="10"/>
+      <c r="K50" s="75" t="s">
+        <v>140</v>
+      </c>
       <c r="L50" s="10"/>
-      <c r="M50" s="27" t="s">
+      <c r="M50" s="10"/>
+      <c r="N50" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="N50" s="27">
+      <c r="O50" s="27">
         <v>15502197321</v>
       </c>
-      <c r="O50" s="28" t="s">
+      <c r="P50" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D51" s="36">
         <f>SUM(D35:D50)</f>
         <v>11</v>
@@ -3060,11 +3178,11 @@
       </c>
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
       <c r="L51" s="36"/>
-      <c r="M51" s="38"/>
-    </row>
-    <row r="53" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M51" s="36"/>
+      <c r="N51" s="38"/>
+    </row>
+    <row r="53" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="59" t="s">
         <v>129</v>
       </c>
@@ -3082,20 +3200,20 @@
         <v>82</v>
       </c>
       <c r="G53" s="41">
-        <f>G51-L51</f>
+        <f>G51-M51</f>
         <v>2806</v>
       </c>
-      <c r="M53" s="42" t="s">
+      <c r="N53" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="N53" s="41">
-        <f>G53-D53-K51-L51</f>
+      <c r="O53" s="41">
+        <f>G53-D53-L51-M51</f>
         <v>566</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
         <v>72</v>
       </c>
@@ -3103,7 +3221,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22">
         <v>6.4</v>
       </c>
@@ -3132,113 +3250,119 @@
       <c r="J58" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="K58" s="10"/>
+      <c r="K58" s="58"/>
       <c r="L58" s="10"/>
-      <c r="M58" s="5" t="s">
+      <c r="M58" s="10"/>
+      <c r="N58" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N58" s="5">
+      <c r="O58" s="5">
         <v>13818948051</v>
       </c>
-      <c r="O58" s="24" t="s">
+      <c r="P58" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="99" t="s">
+    <row r="59" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="71" t="s">
         <v>133</v>
       </c>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22">
         <v>6.9</v>
       </c>
-      <c r="B63" s="88" t="s">
+      <c r="B63" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="89"/>
-      <c r="D63" s="89">
+      <c r="C63" s="62"/>
+      <c r="D63" s="62">
         <v>1</v>
       </c>
-      <c r="E63" s="90">
+      <c r="E63" s="63">
         <v>10500</v>
       </c>
-      <c r="F63" s="89">
+      <c r="F63" s="62">
         <v>129</v>
       </c>
-      <c r="G63" s="80">
+      <c r="G63" s="101">
         <v>310.5</v>
       </c>
-      <c r="H63" s="91"/>
-      <c r="I63" s="80">
+      <c r="H63" s="64"/>
+      <c r="I63" s="101">
         <v>1.86</v>
       </c>
-      <c r="J63" s="92"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="91"/>
-      <c r="M63" s="76" t="s">
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="N63" s="76">
+      <c r="O63" s="97">
         <v>13713671114</v>
       </c>
-      <c r="O63" s="76" t="s">
+      <c r="P63" s="97" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="93" t="s">
+    <row r="64" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94">
+      <c r="C64" s="67"/>
+      <c r="D64" s="67">
         <v>1</v>
       </c>
-      <c r="E64" s="95">
+      <c r="E64" s="68">
         <v>18900</v>
       </c>
-      <c r="F64" s="94">
+      <c r="F64" s="67">
         <v>179</v>
       </c>
-      <c r="G64" s="82"/>
-      <c r="H64" s="96"/>
-      <c r="I64" s="82"/>
-      <c r="J64" s="97"/>
-      <c r="K64" s="96"/>
-      <c r="L64" s="96"/>
-      <c r="M64" s="98"/>
-      <c r="N64" s="98"/>
-      <c r="O64" s="98"/>
+      <c r="G64" s="103"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="110"/>
+      <c r="O64" s="110"/>
+      <c r="P64" s="110"/>
     </row>
     <row r="65" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="M63:M64"/>
+  <mergeCells count="26">
     <mergeCell ref="N63:N64"/>
     <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
     <mergeCell ref="G63:G64"/>
     <mergeCell ref="I63:I64"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="O39:O47"/>
+    <mergeCell ref="P39:P47"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="G39:G47"/>
     <mergeCell ref="F44:F45"/>
-    <mergeCell ref="M39:M47"/>
     <mergeCell ref="N39:N47"/>
+    <mergeCell ref="O39:O47"/>
     <mergeCell ref="J39:J45"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="N21:N22"/>
     <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="J4:J14"/>
     <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3265,8 +3389,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3288,10 +3412,10 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="66"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3330,7 +3454,7 @@
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="76" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -3360,13 +3484,13 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87">
+      <c r="A3" s="112">
         <v>6.3</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="76" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3400,8 +3524,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="86"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="6" t="s">
         <v>50</v>
       </c>
@@ -3449,7 +3573,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3573,14 +3697,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H7" s="50">
-        <f>SUM(H2:H6)</f>
-        <v>1265.19</v>
-      </c>
-      <c r="I7">
-        <f>H7-SUM(C2:C6)*6</f>
-        <v>1097.19</v>
-      </c>
+      <c r="H7" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/X-C 2.0.xlsx
+++ b/X-C 2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E7050B-2AB5-4A55-A0DC-A1E91FEE8898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693CF6CE-5FC0-4A83-8215-DC6FDA458088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="拼邮" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author>milly</author>
   </authors>
   <commentList>
-    <comment ref="I58" authorId="0" shapeId="0" xr:uid="{6B672B80-144D-4112-BF8F-EF861DD96683}">
+    <comment ref="I63" authorId="0" shapeId="0" xr:uid="{6B672B80-144D-4112-BF8F-EF861DD96683}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="I63" authorId="0" shapeId="0" xr:uid="{DF6FC0E2-95A9-4491-8CA3-0426EB092656}">
+    <comment ref="G65" authorId="0" shapeId="0" xr:uid="{922E6BA3-9A8E-4C81-AEF3-13FA5DFAD9B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+分两次付款：310.5+6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I65" authorId="0" shapeId="0" xr:uid="{DF6FC0E2-95A9-4491-8CA3-0426EB092656}">
       <text>
         <r>
           <rPr>
@@ -94,8 +120,44 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>milly</author>
+  </authors>
+  <commentList>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{9ADCA2AE-D4EB-400C-B4F5-9DE811AD51F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+236+运费25</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="179">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -458,10 +520,6 @@
   </si>
   <si>
     <t>+/-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他支出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -647,6 +705,133 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>甜甜圈男孩(黄衣服)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白 1码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡淑娟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白 L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boy折扣款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田诗诗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马卡龙厚底鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>235*1 250*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹璐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findkapoor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰 F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张瑶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直邮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼邮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直邮+拼邮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>josephandstacey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky Pleats Knit M Lemon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joseph Shopper S Ecru Beige€</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李晨宇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省常州市武进区湖塘阳湖名城52幢乙单元1502</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南省郑州市中原区桐柏路与陇海路交叉口东南角金中环A座34层3404号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包通关直邮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚炜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.16下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单统计!A5</t>
+  </si>
+  <si>
+    <t>SCULPTOR, setup, josephandstacey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CJ 631525164384</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -656,6 +841,34 @@
   </si>
   <si>
     <t>CJ 631504998235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色甜甜圈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF1024873631453</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YTG001398583927</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤扬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YTG001398696699</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖格君</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -663,10 +876,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -737,14 +952,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
@@ -777,8 +984,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,18 +1024,28 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="7" tint="0.40000610370189521"/>
+        </stop>
+        <stop position="1">
+          <color theme="5" tint="0.59999389629810485"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1181,6 +1406,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1195,11 +1608,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1239,16 +1652,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
@@ -1278,9 +1685,6 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1296,9 +1700,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,46 +1709,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1356,16 +1757,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1380,7 +1781,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
@@ -1413,32 +1814,164 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1473,71 +2006,56 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="41" fontId="3" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1547,7 +2065,31 @@
     <cellStyle name="计算" xfId="1" builtinId="22"/>
     <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
@@ -1696,6 +2238,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEAF4E4"/>
       <color rgb="FFEFF6FF"/>
       <color rgb="FFECFFEB"/>
       <color rgb="FFFFF0EB"/>
@@ -1715,20 +2258,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9048804-5556-4A84-95BF-149AB92C505D}" name="表1" displayName="表1" ref="A1:I4" totalsRowShown="0" headerRowDxfId="9" headerRowCellStyle="汇总" dataCellStyle="汇总">
-  <autoFilter ref="A1:I4" xr:uid="{3511C254-3102-4222-89E2-E50831232A38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9048804-5556-4A84-95BF-149AB92C505D}" name="表1" displayName="表1" ref="A1:I5" totalsRowShown="0" headerRowDxfId="13" headerRowCellStyle="汇总" dataCellStyle="汇总">
+  <autoFilter ref="A1:I5" xr:uid="{3511C254-3102-4222-89E2-E50831232A38}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{57038ABF-7C32-429F-A9FA-0E046DCDF588}" name="序号" dataDxfId="8" dataCellStyle="超链接"/>
-    <tableColumn id="2" xr3:uid="{A6A9DF33-6439-48BA-AD15-02C49CFE76A5}" name="时间" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{17DF0527-C43C-4149-8C3A-73AA5C643324}" name="数量" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{86123A86-3590-4404-A610-C31A777341E3}" name="总付款" dataDxfId="5" dataCellStyle="汇总"/>
-    <tableColumn id="5" xr3:uid="{DC09076D-FA41-4E76-977C-FA7A2AC19B41}" name="总收入" dataDxfId="4" dataCellStyle="汇总"/>
-    <tableColumn id="6" xr3:uid="{5ED504C5-25C5-4A9C-BBCF-F3F38C9B9644}" name="国际运费" dataDxfId="3" dataCellStyle="汇总"/>
-    <tableColumn id="7" xr3:uid="{0DE844A7-A002-403F-BBDC-A55D97398B21}" name="国内运费" dataDxfId="2" dataCellStyle="汇总"/>
-    <tableColumn id="8" xr3:uid="{751A3E69-8056-4B75-9EB4-610C675CBEDB}" name="+/-" dataDxfId="1" dataCellStyle="汇总">
+    <tableColumn id="1" xr3:uid="{57038ABF-7C32-429F-A9FA-0E046DCDF588}" name="序号" dataDxfId="12" dataCellStyle="超链接"/>
+    <tableColumn id="2" xr3:uid="{A6A9DF33-6439-48BA-AD15-02C49CFE76A5}" name="时间" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{17DF0527-C43C-4149-8C3A-73AA5C643324}" name="数量" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{86123A86-3590-4404-A610-C31A777341E3}" name="总付款" dataDxfId="9" dataCellStyle="汇总"/>
+    <tableColumn id="5" xr3:uid="{DC09076D-FA41-4E76-977C-FA7A2AC19B41}" name="总收入" dataDxfId="8" dataCellStyle="汇总"/>
+    <tableColumn id="6" xr3:uid="{5ED504C5-25C5-4A9C-BBCF-F3F38C9B9644}" name="国际运费" dataDxfId="7" dataCellStyle="汇总"/>
+    <tableColumn id="7" xr3:uid="{0DE844A7-A002-403F-BBDC-A55D97398B21}" name="国内运费" dataDxfId="6" dataCellStyle="汇总"/>
+    <tableColumn id="8" xr3:uid="{751A3E69-8056-4B75-9EB4-610C675CBEDB}" name="+/-" dataDxfId="5" dataCellStyle="汇总">
       <calculatedColumnFormula>E2-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{53165C13-E632-43B0-9813-DB231B46918A}" name="品牌" dataDxfId="0" dataCellStyle="汇总"/>
+    <tableColumn id="9" xr3:uid="{53165C13-E632-43B0-9813-DB231B46918A}" name="品牌" dataDxfId="4" dataCellStyle="汇总"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D98713F-84A8-4330-B684-E4A4DB2A77C6}" name="表1_3" displayName="表1_3" ref="K1:M4" totalsRowShown="0" headerRowDxfId="3" headerRowCellStyle="汇总" dataCellStyle="汇总">
+  <autoFilter ref="K1:M4" xr:uid="{1128E194-390D-4247-9861-C536BD885B95}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6C806D52-F38F-475C-AB98-F9F6282FCAFF}" name="序号" dataDxfId="2" dataCellStyle="超链接"/>
+    <tableColumn id="2" xr3:uid="{3166D4F1-12BE-4B92-AB6D-AA927BE64840}" name="方式" dataDxfId="1" dataCellStyle="超链接"/>
+    <tableColumn id="6" xr3:uid="{B27252BD-D1F0-42D0-A92A-ACC838816583}" name="国际运费" dataDxfId="0" dataCellStyle="汇总"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2032,10 +2587,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF89E5C-CCB9-476F-8234-E85E0F0C37F3}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2043,9 +2598,11 @@
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="66.5546875" bestFit="1" customWidth="1"/>
@@ -2055,10 +2612,10 @@
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85"/>
+      <c r="C1" s="125"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2075,10 +2632,10 @@
         <v>14</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12" t="s">
@@ -2098,83 +2655,85 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="48" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="A3" s="20">
         <v>6.1</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <v>11900</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>115</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>115</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="86" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="74"/>
+      <c r="L4" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="86">
+      <c r="O4" s="126">
         <v>19810952575</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="120" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>11900</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>115</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>115</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="81"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="121"/>
     </row>
     <row r="6" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="79" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2183,7 +2742,7 @@
       <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>11900</v>
       </c>
       <c r="F6" s="7">
@@ -2194,9 +2753,9 @@
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="11"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="134"/>
       <c r="M6" s="11"/>
       <c r="N6" s="8" t="s">
         <v>21</v>
@@ -2204,47 +2763,47 @@
       <c r="O6" s="8">
         <v>16622811762</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>1</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>12900</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>125</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>125</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="16"/>
       <c r="N7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="O7" s="5">
         <v>18190799737</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="79" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2253,7 +2812,7 @@
       <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <v>25900</v>
       </c>
       <c r="F8" s="7">
@@ -2264,9 +2823,9 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="11"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="134"/>
       <c r="M8" s="11"/>
       <c r="N8" s="8" t="s">
         <v>29</v>
@@ -2274,55 +2833,57 @@
       <c r="O8" s="8">
         <v>17375729345</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>11900</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>115</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>115</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="16"/>
       <c r="N9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="O9" s="5">
         <v>18008097133</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="20">
         <v>6.2</v>
       </c>
-      <c r="J10" s="89"/>
-      <c r="K10" s="73"/>
-      <c r="P10" s="31"/>
+      <c r="B10" s="33"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="134"/>
+      <c r="P10" s="28"/>
     </row>
     <row r="11" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="79" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2331,7 +2892,7 @@
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="7">
         <v>219</v>
       </c>
@@ -2340,9 +2901,9 @@
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="11"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="134"/>
       <c r="M11" s="11"/>
       <c r="N11" s="8" t="s">
         <v>9</v>
@@ -2350,50 +2911,50 @@
       <c r="O11" s="8">
         <v>18933367700</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>1</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>22000</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <v>176</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <v>176</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="16"/>
       <c r="N12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="O12" s="5">
         <v>18851302126</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="23">
         <v>6.4</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="80" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2402,7 +2963,7 @@
       <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>28000</v>
       </c>
       <c r="F13" s="7">
@@ -2413,22 +2974,22 @@
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="11"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="134"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="34" t="s">
+      <c r="N13" s="30" t="s">
         <v>67</v>
       </c>
       <c r="O13" s="8">
         <v>15801717613</v>
       </c>
-      <c r="P13" s="35" t="s">
+      <c r="P13" s="31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="79" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2437,7 +2998,7 @@
       <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <v>28000</v>
       </c>
       <c r="F14" s="4">
@@ -2448,9 +3009,9 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="10"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="135"/>
       <c r="M14" s="10"/>
       <c r="N14" s="5" t="s">
         <v>75</v>
@@ -2458,152 +3019,155 @@
       <c r="O14" s="5">
         <v>18058943618</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="P14" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="36">
+      <c r="B15" s="33"/>
+      <c r="D15" s="32">
         <f>SUM(D4:D14)</f>
         <v>10</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="36">
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="32">
         <f>SUM(G4:G14)</f>
         <v>1616</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="32">
         <v>1200</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="38"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="34"/>
     </row>
     <row r="17" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="39" t="s">
+      <c r="A17" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="37">
         <f>H15</f>
         <v>1200</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="37">
         <f>G15-M15</f>
         <v>1616</v>
       </c>
-      <c r="N17" s="42" t="s">
+      <c r="N17" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O17" s="41">
+      <c r="O17" s="37">
         <f>G17-D17-L15-M15</f>
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="20" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="48" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="A21" s="20">
         <v>6.3</v>
       </c>
       <c r="B21" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>1</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="18">
         <v>33500</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>255</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>255</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" s="93">
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="131">
         <v>380730990330</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="82" t="s">
+      <c r="L21" s="136" t="s">
+        <v>151</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="O21" s="82">
+      <c r="O21" s="122">
         <v>13655843077</v>
       </c>
-      <c r="P21" s="80" t="s">
+      <c r="P21" s="120" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="20">
         <v>6.4</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <v>1</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <v>52500</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="15">
         <v>369</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="15">
         <v>369</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="81"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="121"/>
     </row>
     <row r="23" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="48" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="23">
         <v>6.4</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2612,7 +3176,7 @@
       <c r="D24" s="7">
         <v>1</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="17">
         <v>35100</v>
       </c>
       <c r="F24" s="7">
@@ -2623,10 +3187,10 @@
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" s="57"/>
+      <c r="J24" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="53"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="8" t="s">
@@ -2635,20 +3199,20 @@
       <c r="O24" s="8">
         <v>18610048277</v>
       </c>
-      <c r="P24" s="30" t="s">
+      <c r="P24" s="27" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25">
+      <c r="A26" s="23">
         <v>6.4</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="80" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2657,7 +3221,7 @@
       <c r="D26" s="4">
         <v>2</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="21">
         <v>7900</v>
       </c>
       <c r="F26" s="4">
@@ -2669,42 +3233,44 @@
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="58"/>
-      <c r="L26" s="10"/>
+      <c r="J26" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73" t="s">
+        <v>151</v>
+      </c>
       <c r="M26" s="10"/>
-      <c r="N26" s="27" t="s">
+      <c r="N26" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="24">
         <v>15801717613</v>
       </c>
-      <c r="P26" s="28" t="s">
+      <c r="P26" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52" t="s">
-        <v>97</v>
+      <c r="A27" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
+      <c r="A28" s="20">
         <v>6.6</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>98</v>
+      <c r="B28" s="81" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4">
         <v>2</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="21">
         <v>93000</v>
       </c>
       <c r="F28" s="4">
@@ -2716,84 +3282,86 @@
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="K28" s="58"/>
-      <c r="L28" s="10"/>
+      <c r="J28" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67" t="s">
+        <v>150</v>
+      </c>
       <c r="M28" s="10"/>
       <c r="N28" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O28" s="5">
         <v>18222242851</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="36">
+      <c r="D29" s="32">
         <f>SUM(D21:D28)</f>
         <v>7</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="36">
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="32">
         <f>SUM(G21:G28)</f>
         <v>2259</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="32">
         <v>1975.81</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="38"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="34"/>
     </row>
     <row r="31" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="40" t="s">
+      <c r="A31" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="37">
         <f>H29</f>
         <v>1975.81</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="37">
         <f>G29-M29</f>
         <v>2259</v>
       </c>
-      <c r="N31" s="42" t="s">
+      <c r="N31" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O31" s="37">
         <f>G31-D31-L29-M29</f>
         <v>283.19000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="52" t="s">
-        <v>130</v>
+      <c r="A34" s="48" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="A35" s="20">
         <v>6.6</v>
       </c>
-      <c r="B35" s="79" t="s">
-        <v>92</v>
+      <c r="B35" s="80" t="s">
+        <v>91</v>
       </c>
       <c r="C35" s="8">
         <v>250</v>
@@ -2801,7 +3369,7 @@
       <c r="D35" s="7">
         <v>1</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="17">
         <v>19900</v>
       </c>
       <c r="F35" s="7">
@@ -2812,39 +3380,41 @@
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="K35" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="L35" s="11"/>
+      <c r="J35" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="K35" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="L35" s="73" t="s">
+        <v>151</v>
+      </c>
       <c r="M35" s="11"/>
       <c r="N35" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O35" s="8">
         <v>18940928096</v>
       </c>
-      <c r="P35" s="30" t="s">
-        <v>94</v>
+      <c r="P35" s="27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="8.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="95" t="s">
-        <v>126</v>
+      <c r="A37" s="103" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="96"/>
+      <c r="A38" s="104"/>
     </row>
     <row r="39" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="81" t="s">
         <v>99</v>
-      </c>
-      <c r="B39" s="76" t="s">
-        <v>100</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>8</v>
@@ -2852,7 +3422,7 @@
       <c r="D39" s="7">
         <v>1</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="17">
         <v>36100</v>
       </c>
       <c r="F39" s="7">
@@ -2863,28 +3433,30 @@
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="91" t="s">
-        <v>117</v>
-      </c>
-      <c r="K39" s="93">
+      <c r="J39" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="K39" s="114">
         <v>402275955642</v>
       </c>
-      <c r="L39" s="11"/>
+      <c r="L39" s="117" t="s">
+        <v>150</v>
+      </c>
       <c r="M39" s="11"/>
-      <c r="N39" s="97" t="s">
+      <c r="N39" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="O39" s="99">
+        <v>16601778412</v>
+      </c>
+      <c r="P39" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="O39" s="97">
-        <v>16601778412</v>
-      </c>
-      <c r="P39" s="97" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="40" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="100"/>
-      <c r="B40" s="76" t="s">
-        <v>101</v>
+      <c r="A40" s="107"/>
+      <c r="B40" s="81" t="s">
+        <v>100</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>8</v>
@@ -2892,27 +3464,27 @@
       <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="21">
         <v>37050</v>
       </c>
       <c r="F40" s="4">
         <v>279</v>
       </c>
-      <c r="G40" s="102"/>
+      <c r="G40" s="108"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="10"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="119"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="98"/>
-      <c r="O40" s="98"/>
-      <c r="P40" s="98"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
     </row>
     <row r="41" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
-      <c r="B41" s="76" t="s">
-        <v>102</v>
+      <c r="A41" s="107"/>
+      <c r="B41" s="81" t="s">
+        <v>101</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>8</v>
@@ -2920,25 +3492,25 @@
       <c r="D41" s="7">
         <v>1</v>
       </c>
-      <c r="E41" s="19"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="7">
         <v>379</v>
       </c>
-      <c r="G41" s="102"/>
+      <c r="G41" s="108"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="11"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="119"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="98"/>
-      <c r="O41" s="98"/>
-      <c r="P41" s="98"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="105"/>
     </row>
     <row r="42" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
-      <c r="B42" s="76" t="s">
-        <v>103</v>
+      <c r="A42" s="107"/>
+      <c r="B42" s="81" t="s">
+        <v>102</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>8</v>
@@ -2946,29 +3518,29 @@
       <c r="D42" s="4">
         <v>1</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="21">
         <v>37050</v>
       </c>
       <c r="F42" s="4">
         <v>279</v>
       </c>
-      <c r="G42" s="102"/>
+      <c r="G42" s="108"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="10"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="119"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="98"/>
-      <c r="O42" s="98"/>
-      <c r="P42" s="98"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="105"/>
     </row>
     <row r="43" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="81" t="s">
         <v>106</v>
-      </c>
-      <c r="B43" s="76" t="s">
-        <v>107</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>8</v>
@@ -2976,85 +3548,85 @@
       <c r="D43" s="7">
         <v>1</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="17">
         <v>28800</v>
       </c>
       <c r="F43" s="7">
         <v>229</v>
       </c>
-      <c r="G43" s="102"/>
+      <c r="G43" s="108"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="L43" s="11"/>
+      <c r="J43" s="112"/>
+      <c r="K43" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="L43" s="119"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="98"/>
-      <c r="O43" s="98"/>
-      <c r="P43" s="98"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
     </row>
     <row r="44" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="100" t="s">
+      <c r="A44" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="C44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="109">
+        <v>469</v>
+      </c>
+      <c r="G44" s="108"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="117">
+        <v>97603403376</v>
+      </c>
+      <c r="L44" s="119"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="105"/>
+      <c r="O44" s="105"/>
+      <c r="P44" s="105"/>
+    </row>
+    <row r="45" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="107"/>
+      <c r="B45" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D45" s="15">
         <v>1</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="104">
-        <v>469</v>
-      </c>
-      <c r="G44" s="102"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="108">
-        <v>97603403376</v>
-      </c>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="98"/>
-      <c r="O44" s="98"/>
-      <c r="P44" s="98"/>
-    </row>
-    <row r="45" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="100"/>
-      <c r="B45" s="78" t="s">
+      <c r="E45" s="19"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="118"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+    </row>
+    <row r="46" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="17">
-        <v>1</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="109"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="98"/>
-      <c r="O45" s="98"/>
-      <c r="P45" s="98"/>
-    </row>
-    <row r="46" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="51" t="s">
+      <c r="B46" s="81" t="s">
         <v>111</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>8</v>
@@ -3062,31 +3634,31 @@
       <c r="D46" s="7">
         <v>1</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="17">
         <v>24000</v>
       </c>
       <c r="F46" s="7">
         <v>199</v>
       </c>
-      <c r="G46" s="102"/>
+      <c r="G46" s="108"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="K46" s="57"/>
-      <c r="L46" s="11"/>
+      <c r="J46" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="K46" s="67"/>
+      <c r="L46" s="119"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="98"/>
-      <c r="O46" s="98"/>
-      <c r="P46" s="98"/>
+      <c r="N46" s="105"/>
+      <c r="O46" s="105"/>
+      <c r="P46" s="105"/>
     </row>
     <row r="47" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="81" t="s">
         <v>113</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>8</v>
@@ -3094,45 +3666,45 @@
       <c r="D47" s="4">
         <v>1</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="21">
         <v>39000</v>
       </c>
       <c r="F47" s="4">
         <v>286</v>
       </c>
-      <c r="G47" s="103"/>
+      <c r="G47" s="102"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
-      <c r="J47" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="K47" s="58"/>
-      <c r="L47" s="10"/>
+      <c r="J47" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="K47" s="67"/>
+      <c r="L47" s="118"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="98"/>
-      <c r="O47" s="98"/>
-      <c r="P47" s="98"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="105"/>
+      <c r="P47" s="105"/>
     </row>
     <row r="48" spans="1:16" ht="8.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25">
+      <c r="A50" s="23">
         <v>6.7</v>
       </c>
-      <c r="B50" s="79" t="s">
+      <c r="B50" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="21">
         <v>29900</v>
       </c>
       <c r="F50" s="4">
@@ -3144,204 +3716,414 @@
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
-      <c r="J50" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="K50" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="L50" s="10"/>
+      <c r="J50" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="K50" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="L50" s="73" t="s">
+        <v>151</v>
+      </c>
       <c r="M50" s="10"/>
-      <c r="N50" s="27" t="s">
+      <c r="N50" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="O50" s="24">
+        <v>15502197321</v>
+      </c>
+      <c r="P50" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O50" s="27">
-        <v>15502197321</v>
-      </c>
-      <c r="P50" s="28" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="51" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="36">
+      <c r="D51" s="32">
         <f>SUM(D35:D50)</f>
         <v>11</v>
       </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="36">
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="32">
         <f>SUM(G35:G50)</f>
         <v>2806</v>
       </c>
-      <c r="H51" s="36">
+      <c r="H51" s="32">
         <v>2240</v>
       </c>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="38"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="34"/>
     </row>
     <row r="53" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="40" t="s">
+      <c r="A53" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="41">
+      <c r="D53" s="37">
         <f>H51</f>
         <v>2240</v>
       </c>
-      <c r="F53" s="40" t="s">
+      <c r="F53" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="G53" s="41">
+      <c r="G53" s="37">
         <f>G51-M51</f>
         <v>2806</v>
       </c>
-      <c r="N53" s="42" t="s">
+      <c r="N53" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O53" s="41">
+      <c r="O53" s="37">
         <f>G53-D53-L51-M51</f>
         <v>566</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="55"/>
+      <c r="B54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="H56" s="144"/>
+    </row>
     <row r="57" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
+      <c r="C57" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="94">
+        <v>5.7</v>
+      </c>
+      <c r="E57" s="85">
+        <v>54000</v>
+      </c>
+      <c r="F57" s="97">
+        <v>428</v>
+      </c>
+      <c r="G57" s="142" t="s">
+        <v>174</v>
+      </c>
+      <c r="H57" s="142"/>
+    </row>
+    <row r="58" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="93">
+        <v>2</v>
+      </c>
+      <c r="E58" s="86">
+        <v>18000</v>
+      </c>
+      <c r="F58" s="98"/>
+      <c r="G58" s="145" t="s">
+        <v>175</v>
+      </c>
+      <c r="H58" s="146"/>
+      <c r="I58" s="147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="145" t="s">
+        <v>177</v>
+      </c>
+      <c r="H59" s="146"/>
+      <c r="I59" s="147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B62" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22">
+    <row r="63" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="20">
         <v>6.4</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D63" s="4">
         <v>1</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E63" s="21">
         <v>67000</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F63" s="4">
         <v>455.7</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G63" s="4">
         <v>369</v>
       </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10">
+      <c r="H63" s="10"/>
+      <c r="I63" s="10">
         <v>2.73</v>
       </c>
-      <c r="J58" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="K58" s="58"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="5" t="s">
+      <c r="J63" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="K63" s="54"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O58" s="5">
+      <c r="O63" s="5">
         <v>13818948051</v>
       </c>
-      <c r="P58" s="24" t="s">
+      <c r="P63" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="71" t="s">
+    <row r="64" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20">
+        <v>6.9</v>
+      </c>
+      <c r="B65" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58">
+        <v>1</v>
+      </c>
+      <c r="E65" s="59">
+        <v>10500</v>
+      </c>
+      <c r="F65" s="58">
+        <v>129</v>
+      </c>
+      <c r="G65" s="101">
+        <v>316.5</v>
+      </c>
+      <c r="H65" s="60"/>
+      <c r="I65" s="101">
+        <v>1.86</v>
+      </c>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="O65" s="99">
+        <v>13713671114</v>
+      </c>
+      <c r="P65" s="99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="9"/>
-    </row>
-    <row r="63" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="22">
-        <v>6.9</v>
-      </c>
-      <c r="B63" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62">
+      <c r="C66" s="63"/>
+      <c r="D66" s="63">
         <v>1</v>
       </c>
-      <c r="E63" s="63">
-        <v>10500</v>
-      </c>
-      <c r="F63" s="62">
-        <v>129</v>
-      </c>
-      <c r="G63" s="101">
-        <v>310.5</v>
-      </c>
-      <c r="H63" s="64"/>
-      <c r="I63" s="101">
-        <v>1.86</v>
-      </c>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="64"/>
-      <c r="M63" s="64"/>
-      <c r="N63" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="O63" s="97">
-        <v>13713671114</v>
-      </c>
-      <c r="P63" s="97" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67">
+      <c r="E66" s="64">
+        <v>17100</v>
+      </c>
+      <c r="F66" s="63">
+        <v>185</v>
+      </c>
+      <c r="G66" s="102"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="102"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="66"/>
+      <c r="L66" s="65"/>
+      <c r="M66" s="65"/>
+      <c r="N66" s="100"/>
+      <c r="O66" s="100"/>
+      <c r="P66" s="100"/>
+    </row>
+    <row r="67" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="71">
+        <v>6.16</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4">
         <v>1</v>
       </c>
-      <c r="E64" s="68">
-        <v>18900</v>
-      </c>
-      <c r="F64" s="67">
-        <v>179</v>
-      </c>
-      <c r="G64" s="103"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="69"/>
-      <c r="N64" s="110"/>
-      <c r="O64" s="110"/>
-      <c r="P64" s="110"/>
-    </row>
-    <row r="65" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E68" s="21">
+        <v>59800</v>
+      </c>
+      <c r="F68" s="4">
+        <v>419</v>
+      </c>
+      <c r="G68" s="4">
+        <v>419</v>
+      </c>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O68" s="5">
+        <v>18206127539</v>
+      </c>
+      <c r="P68" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7">
+        <v>1</v>
+      </c>
+      <c r="E69" s="17">
+        <v>319800</v>
+      </c>
+      <c r="F69" s="7">
+        <v>2039</v>
+      </c>
+      <c r="G69" s="7">
+        <v>2039</v>
+      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O69" s="8">
+        <v>13623719777</v>
+      </c>
+      <c r="P69" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="32">
+        <f>SUM(D63:D69)</f>
+        <v>5</v>
+      </c>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="32">
+        <f>SUM(G63:G69)</f>
+        <v>3143.5</v>
+      </c>
+      <c r="H70" s="32">
+        <v>2876</v>
+      </c>
+      <c r="I70" s="32">
+        <f>SUM(I63:I69)</f>
+        <v>4.59</v>
+      </c>
+      <c r="J70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="34"/>
+    </row>
+    <row r="72" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="37">
+        <f>H70</f>
+        <v>2876</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" s="37">
+        <f>G70-I70-M70</f>
+        <v>3138.91</v>
+      </c>
+      <c r="N72" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="O72" s="37">
+        <f>G72-D72-L70-M70</f>
+        <v>262.90999999999985</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="96"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="I63:I64"/>
+  <mergeCells count="33">
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="J4:J14"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L4:L14"/>
+    <mergeCell ref="L21:L22"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="P39:P47"/>
     <mergeCell ref="A39:A42"/>
@@ -3353,16 +4135,13 @@
     <mergeCell ref="J39:J45"/>
     <mergeCell ref="K39:K42"/>
     <mergeCell ref="K44:K45"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="J4:J14"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L39:L47"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="I65:I66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3376,7 +4155,10 @@
     <hyperlink ref="A31" location="下单统计!A3" display="下单统计!A3" xr:uid="{31AE32EF-2B11-4357-8973-29592CF5BC92}"/>
     <hyperlink ref="A53" location="下单统计!A4" display="下单统计!A4" xr:uid="{F9891C0B-2984-455C-BE40-C12735B61901}"/>
     <hyperlink ref="A17" location="下单统计!A2" display="下单统计!A2" xr:uid="{996679C3-BC43-428C-A7ED-678A31CE1723}"/>
-    <hyperlink ref="A62" r:id="rId8" xr:uid="{296492A5-2BC0-4F7B-A387-C4884FF17A88}"/>
+    <hyperlink ref="C57" location="下单统计!K2" display="拼邮：" xr:uid="{8577B576-B45E-43A4-A836-4C3D098EDD0F}"/>
+    <hyperlink ref="C58" location="下单统计!K2" display="直邮" xr:uid="{F454D846-5EDF-4CBA-9C6D-0FD1F7240639}"/>
+    <hyperlink ref="B72" r:id="rId8" xr:uid="{39B58AA9-578E-411F-A32A-8D991BF298F7}"/>
+    <hyperlink ref="A72" location="下单统计!A5" display="下单统计!A5" xr:uid="{0340634A-3668-4F7C-AAA0-A8EFEA04FF01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -3385,12 +4167,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E11D21-E3EC-4765-94A6-5F04A796FA6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E11D21-E3EC-4765-94A6-5F04A796FA6F}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3398,7 +4180,7 @@
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="33.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
@@ -3412,10 +4194,10 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="85"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3448,13 +4230,13 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="20">
         <v>6.2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -3463,7 +4245,7 @@
       <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="7">
         <v>299</v>
       </c>
@@ -3484,13 +4266,13 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112">
+      <c r="A3" s="139">
         <v>6.3</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="68" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3499,7 +4281,7 @@
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="4">
         <v>469</v>
       </c>
@@ -3524,8 +4306,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96"/>
-      <c r="B4" s="111"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="138"/>
       <c r="C4" s="6" t="s">
         <v>50</v>
       </c>
@@ -3535,15 +4317,13 @@
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="7">
         <v>268</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
+      <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="8" t="s">
         <v>48</v>
@@ -3555,38 +4335,208 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="140">
+        <v>6.12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="4">
+        <v>299</v>
+      </c>
+      <c r="H5" s="4">
+        <v>299</v>
+      </c>
+      <c r="I5" s="10">
+        <v>236</v>
+      </c>
+      <c r="J5" s="10">
+        <v>25</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="141"/>
+      <c r="C6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="7">
+        <v>289</v>
+      </c>
+      <c r="H6" s="7">
+        <v>289</v>
+      </c>
+      <c r="I6" s="11">
+        <v>146</v>
+      </c>
+      <c r="J6" s="11">
+        <v>25</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="71">
+        <v>6.13</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="4">
+        <v>389</v>
+      </c>
+      <c r="H7" s="4">
+        <f>G7*E7</f>
+        <v>778</v>
+      </c>
+      <c r="I7" s="10">
+        <v>640</v>
+      </c>
+      <c r="J7" s="10">
+        <v>60</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="71">
+        <v>6.14</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="7">
+        <v>603</v>
+      </c>
+      <c r="H8" s="7">
+        <v>603</v>
+      </c>
+      <c r="I8" s="11">
+        <v>495</v>
+      </c>
+      <c r="J8" s="11">
+        <v>30</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="71">
+        <v>6.17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="4">
+        <v>261</v>
+      </c>
+      <c r="H9" s="4">
+        <v>261</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3A941E-D598-4E42-B440-38C028C5B32B}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -3595,109 +4545,166 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+      <c r="K1" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="52">
         <v>6.5</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="29">
         <v>10</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="44">
         <v>1200</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="44">
         <v>1616</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f>E2-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
         <v>416</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+      <c r="J2" s="46"/>
+      <c r="K2" s="43">
+        <v>1</v>
+      </c>
+      <c r="L2" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="44">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
         <v>2</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="52">
         <v>6.6</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="49">
         <v>7</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="50">
         <v>1975.81</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="50">
         <v>2259</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54">
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50">
         <f>E3-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
         <v>283.19000000000005</v>
       </c>
-      <c r="I3" s="55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+      <c r="I3" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="88">
+        <v>2</v>
+      </c>
+      <c r="L3" s="90"/>
+      <c r="M3" s="50"/>
+    </row>
+    <row r="4" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="52">
         <v>6.8</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="49">
         <v>11</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="50">
         <v>2240</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="50">
         <v>2806</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50">
         <f>E4-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
         <v>566</v>
       </c>
-      <c r="I4" s="60" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H7" s="50"/>
+      <c r="I4" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="88">
+        <v>3</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>4</v>
+      </c>
+      <c r="B5" s="95">
+        <v>6.16</v>
+      </c>
+      <c r="C5" s="49">
+        <v>5</v>
+      </c>
+      <c r="D5" s="50">
+        <v>2876</v>
+      </c>
+      <c r="E5" s="50">
+        <v>3138.91</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50">
+        <f>E5-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
+        <v>262.90999999999985</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H8" s="46">
+        <f>SUM(H2:H7)</f>
+        <v>1528.1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3705,11 +4712,14 @@
     <hyperlink ref="A2" location="拼邮!B17" display="拼邮!B17" xr:uid="{30E238A6-DE40-44AA-96BC-265EFB290B22}"/>
     <hyperlink ref="A3" location="拼邮!B31" display="拼邮!B31" xr:uid="{CD9FA933-3657-412E-AAD6-61DC60CAC95F}"/>
     <hyperlink ref="A4" location="拼邮!B53" display="拼邮!B53" xr:uid="{DA5CC17C-5DA7-4CEC-B790-2D836A103AB4}"/>
+    <hyperlink ref="K2" location="拼邮!C57" display="拼邮!C57" xr:uid="{A55FD989-B6C8-40B4-B19F-9C34D7A6E3DA}"/>
+    <hyperlink ref="A5" location="拼邮!B72" display="拼邮!B72" xr:uid="{5B7E47AA-1CF6-4F63-93BE-5560ADCD9798}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
